--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -40,7 +40,36 @@
     <t>备  注</t>
   </si>
   <si>
-    <t>参 加 人 员</t>
+    <r>
+      <t>参 加 人 员（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="华文中宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>红字：老板未付款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="华文中宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，灰色背景：未发工资</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文中宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -48,12 +77,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +146,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -125,7 +192,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,22 +207,61 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,89 +282,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="华文中宋"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="37">
@@ -294,31 +329,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,7 +371,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,85 +425,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,19 +473,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,13 +503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,16 +726,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -709,8 +744,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,9 +767,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,28 +800,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,10 +831,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -808,133 +843,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1380,7 +1415,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
